--- a/flows/TPYP_fund_flow_data.xlsx
+++ b/flows/TPYP_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2181"/>
+  <dimension ref="A1:B2197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22245,6 +22245,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2187" t="n">
+        <v>-2.6416</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2194" t="n">
+        <v>-1.365245</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2196" t="n">
+        <v>-1.376875</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2197" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
